--- a/Assignment/Assignment 2/Facebook web test case.xlsx
+++ b/Assignment/Assignment 2/Facebook web test case.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jazz Kaur\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/27a6a7a2b3347539/Documents/GitHub/Jasleen-Manual-Testing/Assignment/Assignment 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{917BD2E4-DD4F-4058-BF56-63EE58E69F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{917BD2E4-DD4F-4058-BF56-63EE58E69F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27B9A2B4-38A4-4A81-903B-2ACCC7D59D03}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" activeTab="1" xr2:uid="{E3E5C21A-1C2C-4F15-9035-C1FF1654C201}"/>
+    <workbookView minimized="1" xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{E3E5C21A-1C2C-4F15-9035-C1FF1654C201}"/>
   </bookViews>
   <sheets>
     <sheet name="HLR" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="62">
   <si>
     <t>FUNCTIONALITY  ID</t>
   </si>
@@ -193,12 +193,6 @@
 ask to fill user
 name and date
 of birthday etc.</t>
-  </si>
-  <si>
-    <t>As
-expe
-ct
-result</t>
   </si>
   <si>
     <t>check the create new page  functionality</t>
@@ -377,6 +371,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72BFF2C-2F78-4679-9A77-0FC9AF6D55C5}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="C9" sqref="C4:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,8 +780,8 @@
     <col min="4" max="4" width="19.44140625" customWidth="1"/>
     <col min="5" max="5" width="17.44140625" customWidth="1"/>
     <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="15.77734375" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" customWidth="1"/>
+    <col min="7" max="7" width="27.21875" customWidth="1"/>
+    <col min="8" max="8" width="37.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -815,7 +813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -861,7 +859,7 @@
         <v>30</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>31</v>
@@ -890,7 +888,7 @@
         <v>30</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>31</v>
@@ -902,7 +900,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="331.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -931,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -960,7 +958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="316.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -989,7 +987,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1006,7 +1004,7 @@
         <v>30</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>42</v>
@@ -1035,7 +1033,7 @@
         <v>30</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>44</v>
@@ -1047,7 +1045,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="216" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1076,7 +1074,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="288" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
@@ -1099,13 +1097,13 @@
         <v>53</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="345.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1113,22 +1111,22 @@
         <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>48</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>14</v>
